--- a/DataRepo/example_data/data_submission_accucor2.xlsx
+++ b/DataRepo/example_data/data_submission_accucor2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjm12/Desktop/TraceBase Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5F3E1-4B1F-2042-B149-D1FC2043AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B92641F-32FD-3446-A8FF-5C41A3BC14EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="720" windowWidth="26580" windowHeight="8900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="720" windowWidth="49260" windowHeight="8900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
     <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -76,48 +76,6 @@
     <t>blank_15N_AAmix_10Xstd</t>
   </si>
   <si>
-    <t>M2_1_TS1</t>
-  </si>
-  <si>
-    <t>M2_2_bra</t>
-  </si>
-  <si>
-    <t>M2_3_quad</t>
-  </si>
-  <si>
-    <t>M2_4_kid</t>
-  </si>
-  <si>
-    <t>M2_5_liv</t>
-  </si>
-  <si>
-    <t>M2_6_spl</t>
-  </si>
-  <si>
-    <t>M2_7_panc</t>
-  </si>
-  <si>
-    <t>M2_8_stom</t>
-  </si>
-  <si>
-    <t>M2_9_lung</t>
-  </si>
-  <si>
-    <t>M2_10_hea</t>
-  </si>
-  <si>
-    <t>M2_11_thy</t>
-  </si>
-  <si>
-    <t>M2_12_gWAT</t>
-  </si>
-  <si>
-    <t>M2_14_SI</t>
-  </si>
-  <si>
-    <t>M2_15_ears</t>
-  </si>
-  <si>
     <t>C12 PARENT</t>
   </si>
   <si>
@@ -161,6 +119,48 @@
   </si>
   <si>
     <t>C_Label</t>
+  </si>
+  <si>
+    <t>072920_XXX2_1_TS1</t>
+  </si>
+  <si>
+    <t>072920_XXX2_3_quad</t>
+  </si>
+  <si>
+    <t>072920_XXX2_4_kid</t>
+  </si>
+  <si>
+    <t>072920_XXX2_5_liv</t>
+  </si>
+  <si>
+    <t>072920_XXX2_6_spl</t>
+  </si>
+  <si>
+    <t>072920_XXX2_7_panc</t>
+  </si>
+  <si>
+    <t>072920_XXX2_8_stom</t>
+  </si>
+  <si>
+    <t>072920_XXX2_9_lung</t>
+  </si>
+  <si>
+    <t>072920_XXX2_10_hea</t>
+  </si>
+  <si>
+    <t>072920_XXX2_11_thy</t>
+  </si>
+  <si>
+    <t>072920_XXX2_12_gWAT</t>
+  </si>
+  <si>
+    <t>072920_XXX2_14_SI</t>
+  </si>
+  <si>
+    <t>072920_XXX2_15_ears</t>
+  </si>
+  <si>
+    <t>072920_XXX2_2_bra</t>
   </si>
 </sst>
 </file>
@@ -549,9 +549,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -606,46 +639,46 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -668,16 +701,16 @@
         <v>0.82319200000000003</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>4.7E-2</v>
@@ -757,16 +790,16 @@
         <v>0.84785600000000005</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M3">
         <v>4.2000000000000003E-2</v>
@@ -846,16 +879,16 @@
         <v>0.85372800000000004</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M4">
         <v>5.2999999999999999E-2</v>
@@ -935,16 +968,16 @@
         <v>0.84785500000000003</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M5">
         <v>5.8000000000000003E-2</v>
@@ -1024,16 +1057,16 @@
         <v>0.84764300000000004</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>3.5999999999999997E-2</v>
@@ -1113,16 +1146,16 @@
         <v>0.85106599999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <v>4.7E-2</v>
@@ -1202,16 +1235,16 @@
         <v>0.82575699999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>4.2000000000000003E-2</v>
@@ -1291,16 +1324,16 @@
         <v>0.82460699999999998</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <v>9.6000000000000002E-2</v>
@@ -1380,16 +1413,16 @@
         <v>0.85163999999999995</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M10">
         <v>0.13600000000000001</v>
@@ -1469,16 +1502,16 @@
         <v>0.84621599999999997</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>0.14499999999999999</v>
@@ -1558,16 +1591,16 @@
         <v>0.84904900000000005</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <v>0.13300000000000001</v>
@@ -1647,16 +1680,16 @@
         <v>0.83026</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>6.2E-2</v>
@@ -1736,16 +1769,16 @@
         <v>0.83971899999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>0.08</v>
@@ -1825,16 +1858,16 @@
         <v>0.85023400000000005</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M15">
         <v>8.5000000000000006E-2</v>
@@ -1906,13 +1939,34 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -1924,51 +1978,51 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2027,7 +2081,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2086,7 +2140,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2145,7 +2199,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2204,7 +2258,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2263,7 +2317,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2322,7 +2376,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2381,7 +2435,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2440,7 +2494,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2499,7 +2553,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2558,7 +2612,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2617,7 +2671,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2676,7 +2730,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2735,7 +2789,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2801,18 +2855,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -2824,51 +2897,51 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2924,7 +2997,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2980,7 +3053,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3036,7 +3109,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3092,7 +3165,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3148,7 +3221,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3204,7 +3277,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -3260,7 +3333,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3316,7 +3389,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3372,7 +3445,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3428,7 +3501,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3484,7 +3557,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3540,7 +3613,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3596,7 +3669,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3659,15 +3732,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -3679,51 +3770,51 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3779,7 +3870,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3835,7 +3926,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
